--- a/data vis /varMATRIX.xlsx
+++ b/data vis /varMATRIX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/summer2020/data vis /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51353C23-D8C0-9049-BDC3-F19612F29DE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD867EC-528F-2C44-9B51-746EC3966AA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40640" yWindow="-10940" windowWidth="26560" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31900" yWindow="-12700" windowWidth="26560" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="varMATRIX" sheetId="1" r:id="rId1"/>
@@ -2142,7 +2142,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2322,6 +2322,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2484,7 +2490,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
@@ -2492,6 +2498,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2851,8 +2860,8 @@
   <dimension ref="A1:AE290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U174" sqref="U171:U174"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I287" sqref="I287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17697,89 +17706,89 @@
         <v>477</v>
       </c>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A180">
+    <row r="180" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="7">
         <v>179</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="7">
         <v>31</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E180" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G180" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="H180" t="s">
+      <c r="H180" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="J180" s="3" t="s">
+      <c r="J180" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="K180" t="s">
+      <c r="K180" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L180">
+      <c r="L180" s="7">
         <v>336</v>
       </c>
-      <c r="M180">
+      <c r="M180" s="7">
         <v>14</v>
       </c>
-      <c r="N180" t="s">
+      <c r="N180" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P180" s="4" t="s">
+      <c r="P180" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q180" t="s">
+      <c r="Q180" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="R180" t="s">
+      <c r="R180" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="S180" t="s">
+      <c r="S180" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="T180" t="s">
+      <c r="T180" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="U180" t="s">
+      <c r="U180" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="V180">
+      <c r="V180" s="7">
         <v>10</v>
       </c>
-      <c r="W180" t="s">
+      <c r="W180" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="X180">
+      <c r="X180" s="7">
         <v>10</v>
       </c>
-      <c r="Y180">
+      <c r="Y180" s="7">
         <v>24</v>
       </c>
-      <c r="Z180" t="s">
+      <c r="Z180" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA180">
+      <c r="AA180" s="7">
         <v>1</v>
       </c>
-      <c r="AB180">
+      <c r="AB180" s="7">
         <v>24</v>
       </c>
-      <c r="AC180" t="s">
+      <c r="AC180" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="AD180" t="s">
+      <c r="AD180" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="AE180" t="s">
+      <c r="AE180" s="7" t="s">
         <v>480</v>
       </c>
     </row>
@@ -19441,80 +19450,80 @@
         <v>396</v>
       </c>
     </row>
-    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A202">
+    <row r="202" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="7">
         <v>201</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="7">
         <v>38</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E202" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G202" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="H202" t="s">
+      <c r="H202" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="I202" t="s">
+      <c r="I202" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="J202">
+      <c r="J202" s="7">
         <v>14.56</v>
       </c>
-      <c r="K202" t="s">
+      <c r="K202" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L202">
+      <c r="L202" s="7">
         <v>349.44</v>
       </c>
-      <c r="M202">
+      <c r="M202" s="7">
         <v>14.56</v>
       </c>
-      <c r="N202" t="s">
+      <c r="N202" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="O202" t="s">
+      <c r="O202" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P202" s="4" t="s">
+      <c r="P202" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q202" t="s">
+      <c r="Q202" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="S202" t="s">
+      <c r="S202" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="T202" t="s">
+      <c r="T202" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="U202" s="4" t="s">
+      <c r="U202" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="Y202">
+      <c r="Y202" s="7">
         <v>24</v>
       </c>
-      <c r="Z202" t="s">
+      <c r="Z202" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AA202">
+      <c r="AA202" s="7">
         <v>1</v>
       </c>
-      <c r="AB202">
+      <c r="AB202" s="7">
         <v>24</v>
       </c>
-      <c r="AC202" t="s">
+      <c r="AC202" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AD202" t="s">
+      <c r="AD202" s="7" t="s">
         <v>470</v>
       </c>
     </row>
